--- a/Dokumente/Arbeitszeiten/Stefan Voshage.xlsx
+++ b/Dokumente/Arbeitszeiten/Stefan Voshage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Projektmitglied:</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Stefan Voshage</t>
   </si>
   <si>
-    <t>Tage</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zeitaufwand </t>
   </si>
   <si>
@@ -58,6 +55,18 @@
   </si>
   <si>
     <t>Vorbereitung der Präsentation</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>2,5 h</t>
+  </si>
+  <si>
+    <t>1 h</t>
+  </si>
+  <si>
+    <t>Recherche der bioportal API</t>
   </si>
 </sst>
 </file>
@@ -158,14 +167,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,262 +498,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F39"/>
+  <dimension ref="A2:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
     <col min="6" max="6" width="37.5703125" customWidth="1"/>
     <col min="8" max="8" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="B4" s="10">
+        <v>41761</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>41744</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6">
-        <v>41761</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f>F3</f>
+      <c r="D10" s="2" t="str">
+        <f>E3</f>
         <v>AP 0: Projektmanagement</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>E4</f>
+        <v>AP 1: Hintergrundinformationen sammeln</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Dokumente/Arbeitszeiten/Stefan Voshage.xlsx
+++ b/Dokumente/Arbeitszeiten/Stefan Voshage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Projektmitglied:</t>
   </si>
@@ -63,10 +63,40 @@
     <t>2,5 h</t>
   </si>
   <si>
+    <t>Recherche der bioportal API</t>
+  </si>
+  <si>
+    <t>2 h</t>
+  </si>
+  <si>
+    <t>Erstellen Statusbericht</t>
+  </si>
+  <si>
+    <t>3 h</t>
+  </si>
+  <si>
+    <t>Recherche relevanter OntologiePortale (identifiers.org, geneontology.org)</t>
+  </si>
+  <si>
     <t>1 h</t>
   </si>
   <si>
-    <t>Recherche der bioportal API</t>
+    <t>Recherche zu SBML und Biomodels Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche zur Anwendung  von Java(Htmlunit) auf Server </t>
+  </si>
+  <si>
+    <t>Recherche zu (identifiers.org, Biomodels Database, Miriam Registry)</t>
+  </si>
+  <si>
+    <t>Recherche SBML, Geneontology API, SBO</t>
+  </si>
+  <si>
+    <t>Recherche SBML, Geneontology API, SBO CSS Query</t>
+  </si>
+  <si>
+    <t>Recherche zur Interpro,SBO,AMiGO,KEGG</t>
   </si>
 </sst>
 </file>
@@ -167,19 +197,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -196,6 +220,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,17 +534,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E39"/>
+  <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" customWidth="1"/>
     <col min="6" max="6" width="37.5703125" customWidth="1"/>
@@ -524,7 +560,7 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -535,7 +571,7 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>41761</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -572,200 +608,283 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="11">
+        <v>41736</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>41737</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>41738</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f>E4</f>
+        <v>AP 1: Hintergrundinformationen sammeln</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>41739</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="str">
+        <f>E4</f>
+        <v>AP 1: Hintergrundinformationen sammeln</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>41740</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>41741</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>41742</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>41743</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>41744</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D18" s="3" t="str">
         <f>E3</f>
         <v>AP 0: Projektmanagement</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="str">
+    <row r="19" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>41745</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="str">
         <f>E4</f>
         <v>AP 1: Hintergrundinformationen sammeln</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="11">
+        <v>41746</v>
+      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="11">
+        <v>41747</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f>E4</f>
+        <v>AP 1: Hintergrundinformationen sammeln</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="11">
+        <v>41748</v>
+      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="11">
+        <v>41749</v>
+      </c>
+      <c r="B23" s="9"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="11">
+        <v>41750</v>
+      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>41751</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f>E5</f>
+        <v>AP 2: Entwicklungsumgebung aufsetzen</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>41752</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f>E5</f>
+        <v>AP 2: Entwicklungsumgebung aufsetzen</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="11">
+        <v>41753</v>
+      </c>
+      <c r="B27" s="9"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="11">
+        <v>41754</v>
+      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="11">
+        <v>41755</v>
+      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="11">
+        <v>41756</v>
+      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="11">
+        <v>41757</v>
+      </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>41758</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f>E5</f>
+        <v>AP 2: Entwicklungsumgebung aufsetzen</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="11">
+        <v>41759</v>
+      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="11">
+        <v>41760</v>
+      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="13">
+        <v>41761</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f>E3</f>
+        <v>AP 0: Projektmanagement</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A36"/>
+      <c r="B36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
